--- a/teacher_timetables/Stephane RETY_CampA_timetable.xlsx
+++ b/teacher_timetables/Stephane RETY_CampA_timetable.xlsx
@@ -55,15 +55,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,16 +497,16 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>Welcome</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr"/>
-      <c r="D3" s="3" t="inlineStr"/>
-      <c r="E3" s="3" t="inlineStr"/>
-      <c r="F3" s="3" t="inlineStr"/>
-      <c r="G3" s="3" t="inlineStr"/>
+      <c r="C3" s="1" t="inlineStr"/>
+      <c r="D3" s="1" t="inlineStr"/>
+      <c r="E3" s="1" t="inlineStr"/>
+      <c r="F3" s="1" t="inlineStr"/>
+      <c r="G3" s="1" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -555,33 +553,33 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>Evan QI</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>Hailey LEUNG  Private Lesson with Stephane RETY &amp; pianist</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="D7" s="1" t="inlineStr">
         <is>
           <t>Moses LO</t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="E7" s="1" t="inlineStr">
         <is>
           <t>Evan QI Private Lesson with Stephane RETY &amp; pianist</t>
         </is>
       </c>
-      <c r="F7" s="3" t="inlineStr">
+      <c r="F7" s="1" t="inlineStr">
         <is>
           <t>Flute MasterClass
 (Room Stephane)</t>
         </is>
       </c>
-      <c r="G7" s="3" t="inlineStr">
+      <c r="G7" s="1" t="inlineStr">
         <is>
           <t>Rehearsal for Students and Friends Concert</t>
         </is>
@@ -632,22 +630,22 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>Yanis SZE</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>Moses LO Private Lesson with Stephane RETY &amp; pianist</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="D11" s="1" t="inlineStr">
         <is>
           <t>Roni WONG</t>
         </is>
       </c>
-      <c r="E11" s="3" t="inlineStr">
+      <c r="E11" s="1" t="inlineStr">
         <is>
           <t>Yanis SZE Private Lesson with Stephane RETY &amp; pianist</t>
         </is>
@@ -700,32 +698,32 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>Lunch</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>Lunch</t>
         </is>
       </c>
-      <c r="D15" s="3" t="inlineStr">
+      <c r="D15" s="1" t="inlineStr">
         <is>
           <t>Lunch</t>
         </is>
       </c>
-      <c r="E15" s="3" t="inlineStr">
+      <c r="E15" s="1" t="inlineStr">
         <is>
           <t>Lunch</t>
         </is>
       </c>
-      <c r="F15" s="3" t="inlineStr">
+      <c r="F15" s="1" t="inlineStr">
         <is>
           <t>Lunch</t>
         </is>
       </c>
-      <c r="G15" s="3" t="inlineStr">
+      <c r="G15" s="1" t="inlineStr">
         <is>
           <t>Lunch</t>
         </is>
@@ -776,27 +774,27 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>Cybi CHENG</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>Roni WONG Private Lesson with Stephane RETY &amp; pianist</t>
         </is>
       </c>
-      <c r="D19" s="3" t="inlineStr">
+      <c r="D19" s="1" t="inlineStr">
         <is>
           <t>Hailey LEUNG</t>
         </is>
       </c>
-      <c r="E19" s="3" t="inlineStr">
+      <c r="E19" s="1" t="inlineStr">
         <is>
           <t>Cybi CHENG Private Lesson with Stephane RETY &amp; pianist</t>
         </is>
       </c>
-      <c r="F19" s="3" t="inlineStr">
+      <c r="F19" s="1" t="inlineStr">
         <is>
           <t>Flute MasterClass
 (Room Stephane)</t>
@@ -828,7 +826,7 @@
       <c r="D21" s="1" t="n"/>
       <c r="E21" s="1" t="n"/>
       <c r="F21" s="1" t="n"/>
-      <c r="G21" s="3" t="inlineStr">
+      <c r="G21" s="1" t="inlineStr">
         <is>
           <t>Lina Summer Camp of Music Students &amp; Friends Concert</t>
         </is>
@@ -853,31 +851,31 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B23" s="3" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>Group 4
 Ensemble Coaching</t>
         </is>
       </c>
-      <c r="C23" s="3" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>Group 4
 Ensemble Coaching</t>
         </is>
       </c>
-      <c r="D23" s="3" t="inlineStr">
+      <c r="D23" s="1" t="inlineStr">
         <is>
           <t>Group 4
 Ensemble Coaching</t>
         </is>
       </c>
-      <c r="E23" s="3" t="inlineStr">
+      <c r="E23" s="1" t="inlineStr">
         <is>
           <t>Group 4
 Ensemble Coaching</t>
         </is>
       </c>
-      <c r="F23" s="3" t="inlineStr">
+      <c r="F23" s="1" t="inlineStr">
         <is>
           <t>Group 4
 Ensemble Coaching</t>
@@ -930,32 +928,32 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B27" s="3" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>Break</t>
         </is>
       </c>
-      <c r="C27" s="3" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>Break</t>
         </is>
       </c>
-      <c r="D27" s="3" t="inlineStr">
+      <c r="D27" s="1" t="inlineStr">
         <is>
           <t>Break</t>
         </is>
       </c>
-      <c r="E27" s="3" t="inlineStr">
+      <c r="E27" s="1" t="inlineStr">
         <is>
           <t>Break</t>
         </is>
       </c>
-      <c r="F27" s="3" t="inlineStr">
+      <c r="F27" s="1" t="inlineStr">
         <is>
           <t>Break</t>
         </is>
       </c>
-      <c r="G27" s="3" t="inlineStr">
+      <c r="G27" s="1" t="inlineStr">
         <is>
           <t>After concert refreshment 
 (Maritime Museum)</t>
@@ -999,7 +997,7 @@
       <c r="D30" s="1" t="n"/>
       <c r="E30" s="1" t="n"/>
       <c r="F30" s="1" t="n"/>
-      <c r="G30" s="3" t="inlineStr">
+      <c r="G30" s="1" t="inlineStr">
         <is>
           <t>Rehearsal for Faculty Concert</t>
         </is>
@@ -1011,11 +1009,11 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr"/>
-      <c r="C31" s="4" t="inlineStr"/>
-      <c r="D31" s="4" t="inlineStr"/>
-      <c r="E31" s="4" t="inlineStr"/>
-      <c r="F31" s="4" t="inlineStr"/>
+      <c r="B31" s="1" t="inlineStr"/>
+      <c r="C31" s="1" t="inlineStr"/>
+      <c r="D31" s="1" t="inlineStr"/>
+      <c r="E31" s="1" t="inlineStr"/>
+      <c r="F31" s="1" t="inlineStr"/>
       <c r="G31" s="1" t="n"/>
     </row>
     <row r="32">
@@ -1024,27 +1022,27 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="B32" s="3" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr">
         <is>
           <t>Faculty Rehearsal</t>
         </is>
       </c>
-      <c r="C32" s="3" t="inlineStr">
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>Faculty Rehearsal</t>
         </is>
       </c>
-      <c r="D32" s="3" t="inlineStr">
+      <c r="D32" s="1" t="inlineStr">
         <is>
           <t>Faculty Rehearsal</t>
         </is>
       </c>
-      <c r="E32" s="3" t="inlineStr">
+      <c r="E32" s="1" t="inlineStr">
         <is>
           <t>Faculty Rehearsal</t>
         </is>
       </c>
-      <c r="F32" s="3" t="inlineStr">
+      <c r="F32" s="1" t="inlineStr">
         <is>
           <t>Faculty Rehearsal</t>
         </is>
@@ -1062,7 +1060,7 @@
       <c r="D33" s="1" t="n"/>
       <c r="E33" s="1" t="n"/>
       <c r="F33" s="1" t="n"/>
-      <c r="G33" s="3" t="inlineStr">
+      <c r="G33" s="1" t="inlineStr">
         <is>
           <t>Break</t>
         </is>
@@ -1118,7 +1116,7 @@
       <c r="D37" s="1" t="n"/>
       <c r="E37" s="1" t="n"/>
       <c r="F37" s="1" t="n"/>
-      <c r="G37" s="3" t="inlineStr">
+      <c r="G37" s="1" t="inlineStr">
         <is>
           <t>Lina Summer Camp of Music Faculty Concert</t>
         </is>
@@ -1143,11 +1141,11 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="B39" s="3" t="inlineStr"/>
-      <c r="C39" s="3" t="inlineStr"/>
-      <c r="D39" s="3" t="inlineStr"/>
-      <c r="E39" s="3" t="inlineStr"/>
-      <c r="F39" s="3" t="inlineStr"/>
+      <c r="B39" s="1" t="inlineStr"/>
+      <c r="C39" s="1" t="inlineStr"/>
+      <c r="D39" s="1" t="inlineStr"/>
+      <c r="E39" s="1" t="inlineStr"/>
+      <c r="F39" s="1" t="inlineStr"/>
       <c r="G39" s="1" t="n"/>
     </row>
     <row r="40">
@@ -1187,7 +1185,7 @@
       <c r="D42" s="1" t="n"/>
       <c r="E42" s="1" t="n"/>
       <c r="F42" s="1" t="n"/>
-      <c r="G42" s="3" t="inlineStr">
+      <c r="G42" s="1" t="inlineStr">
         <is>
           <t>After concert refreshment</t>
         </is>
@@ -1230,7 +1228,7 @@
       <c r="D45" s="1" t="n"/>
       <c r="E45" s="1" t="n"/>
       <c r="F45" s="1" t="n"/>
-      <c r="G45" s="3" t="inlineStr">
+      <c r="G45" s="1" t="inlineStr">
         <is>
           <t>After Concert Dinner 
 (Pheasant-Jasmine Room, Mandarin Oriental)</t>

--- a/teacher_timetables/Stephane RETY_CampA_timetable.xlsx
+++ b/teacher_timetables/Stephane RETY_CampA_timetable.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Full Timetable" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Full Timetable" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/teacher_timetables/Stephane RETY_CampA_timetable.xlsx
+++ b/teacher_timetables/Stephane RETY_CampA_timetable.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Full Timetable" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Full Timetable" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -510,7 +510,12 @@
 (Room UG24)</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr"/>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>Warm Up Workshop 
+(Room G19)</t>
+        </is>
+      </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
           <t>Yoga Class
